--- a/Piano di Progetto/Preventivo/PrototipazioneDettaglio.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/PrototipazioneDettaglio.Economico.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391296FA-7319-405B-B7D8-2ED32FDA515F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A7629B-2403-4E6B-869D-CC2B3BC6717C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -255,6 +252,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EA60-49DD-9647-7D13529A34E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -272,6 +274,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EA60-49DD-9647-7D13529A34E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -289,6 +296,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EA60-49DD-9647-7D13529A34E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -306,6 +318,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EA60-49DD-9647-7D13529A34E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -323,6 +340,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-EA60-49DD-9647-7D13529A34E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -340,6 +362,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-EA60-49DD-9647-7D13529A34E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -422,7 +449,7 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>660</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
@@ -1070,19 +1097,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Foglio1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1385,7 +1399,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="A2:A7 C2:C7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,11 +1447,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
         <f>22*B4</f>
-        <v>660</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1482,11 +1496,11 @@
       </c>
       <c r="B8" s="11">
         <f>SUM(B2:B7)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C8" s="11">
         <f>SUM(C2:C7)</f>
-        <v>1410</v>
+        <v>1520</v>
       </c>
     </row>
   </sheetData>

--- a/Piano di Progetto/Preventivo/PrototipazioneDettaglio.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/PrototipazioneDettaglio.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A7629B-2403-4E6B-869D-CC2B3BC6717C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9280DBC3-A93D-4791-A821-712A772BCCBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +191,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,7 +1402,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,8 +1501,7 @@
         <f>SUM(B2:B7)</f>
         <v>75</v>
       </c>
-      <c r="C8" s="11">
-        <f>SUM(C2:C7)</f>
+      <c r="C8" s="13">
         <v>1520</v>
       </c>
     </row>

--- a/Piano di Progetto/Preventivo/PrototipazioneDettaglio.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/PrototipazioneDettaglio.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9280DBC3-A93D-4791-A821-712A772BCCBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBE3E41-E481-4663-A2EB-726CB16AEB91}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -380,13 +380,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -523,7 +521,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -1502,6 +1500,7 @@
         <v>75</v>
       </c>
       <c r="C8" s="13">
+        <f>SUM(C2:C7)</f>
         <v>1520</v>
       </c>
     </row>
